--- a/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.2840772185315531</v>
+        <v>-1.123305982541588</v>
       </c>
       <c r="C2">
-        <v>-0.2004902617375828</v>
+        <v>-0.02330598254158778</v>
       </c>
       <c r="D2">
-        <v>0.2693001680761138</v>
+        <v>0.1766940174584122</v>
       </c>
       <c r="E2">
-        <v>-0.06480208307234331</v>
+        <v>-0.2233059825415878</v>
       </c>
       <c r="F2">
-        <v>-0.2313541471418182</v>
+        <v>0.07669401745841223</v>
       </c>
       <c r="G2">
-        <v>-0.2753463539738563</v>
+        <v>-0.3233059825415878</v>
       </c>
       <c r="H2">
-        <v>-0.2129469011728272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.4766940174584122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.1653615731043751</v>
+        <v>0.043791487406589</v>
       </c>
       <c r="C3">
-        <v>0.3044288567093215</v>
+        <v>0.243791487406589</v>
       </c>
       <c r="D3">
-        <v>-0.02967339443913561</v>
+        <v>-0.156208512593411</v>
       </c>
       <c r="E3">
-        <v>-0.1962254585086105</v>
+        <v>0.143791487406589</v>
       </c>
       <c r="F3">
-        <v>-0.2402176653406486</v>
+        <v>-0.256208512593411</v>
       </c>
       <c r="G3">
-        <v>-0.1778182125396195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.543791487406589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.2451654008535814</v>
+        <v>0.125432791727192</v>
       </c>
       <c r="C4">
-        <v>-0.08893685029487572</v>
+        <v>-0.2745672082728081</v>
       </c>
       <c r="D4">
-        <v>-0.2554889143643506</v>
+        <v>0.02543279172719195</v>
       </c>
       <c r="E4">
-        <v>-0.2994811211963888</v>
+        <v>-0.3745672082728081</v>
       </c>
       <c r="F4">
-        <v>-0.2370816683953596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.425432791727192</v>
+      </c>
+      <c r="G4">
+        <v>0.125432791727192</v>
+      </c>
+      <c r="H4">
+        <v>0.02543279172719195</v>
+      </c>
+      <c r="I4">
+        <v>-0.3745672082728081</v>
+      </c>
+      <c r="J4">
+        <v>-0.7745672082728081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.2504831015490533</v>
+        <v>-0.3015462512541777</v>
       </c>
       <c r="C5">
-        <v>-0.4170351656185282</v>
+        <v>-0.0015462512541777</v>
       </c>
       <c r="D5">
-        <v>-0.4610273724505664</v>
+        <v>-0.4015462512541777</v>
       </c>
       <c r="E5">
-        <v>-0.3986279196495373</v>
+        <v>0.3984537487458223</v>
       </c>
       <c r="F5">
-        <v>-0.4318563959769154</v>
+        <v>0.0984537487458223</v>
       </c>
       <c r="G5">
-        <v>-0.4257177905019965</v>
+        <v>-0.0015462512541777</v>
       </c>
       <c r="H5">
-        <v>-0.480642736192681</v>
+        <v>-0.4015462512541777</v>
       </c>
       <c r="I5">
-        <v>-0.4796129543031131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-0.8015462512541778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.3907654795185617</v>
+        <v>0.271863973860668</v>
       </c>
       <c r="C6">
-        <v>-0.4347576863505999</v>
+        <v>-0.128136026139332</v>
       </c>
       <c r="D6">
-        <v>-0.3723582335495708</v>
+        <v>0.671863973860668</v>
       </c>
       <c r="E6">
-        <v>-0.4055867098769489</v>
+        <v>0.3718639738606681</v>
       </c>
       <c r="F6">
-        <v>-0.39944810440203</v>
+        <v>0.271863973860668</v>
       </c>
       <c r="G6">
-        <v>-0.4543730500927145</v>
+        <v>-0.128136026139332</v>
       </c>
       <c r="H6">
-        <v>-0.4533432682031466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.528136026139332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.3636790540382959</v>
+        <v>-0.1414808197323844</v>
       </c>
       <c r="C7">
-        <v>-0.3012796012372668</v>
+        <v>0.6585191802676156</v>
       </c>
       <c r="D7">
-        <v>-0.334508077564645</v>
+        <v>0.3585191802676156</v>
       </c>
       <c r="E7">
-        <v>-0.3283694720897261</v>
+        <v>0.2585191802676156</v>
       </c>
       <c r="F7">
-        <v>-0.3832944177804106</v>
+        <v>-0.1414808197323844</v>
       </c>
       <c r="G7">
-        <v>-0.3822646358908427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.5414808197323844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2454345941963761</v>
+        <v>0.4029184009508193</v>
       </c>
       <c r="C8">
-        <v>-0.2786630705237543</v>
+        <v>0.1029184009508193</v>
       </c>
       <c r="D8">
-        <v>-0.2725244650488354</v>
+        <v>0.002918400950819272</v>
       </c>
       <c r="E8">
-        <v>-0.3274494107395199</v>
+        <v>-0.3970815990491807</v>
       </c>
       <c r="F8">
-        <v>-0.326419628849952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.7970815990491807</v>
+      </c>
+      <c r="G8">
+        <v>-0.7970815990491807</v>
+      </c>
+      <c r="H8">
+        <v>0.9029184009508193</v>
+      </c>
+      <c r="I8">
+        <v>-0.4970815990491807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.2664767452862818</v>
+        <v>0.1966784556707163</v>
       </c>
       <c r="C9">
-        <v>-0.260338139811363</v>
+        <v>0.09667845567071635</v>
       </c>
       <c r="D9">
-        <v>-0.3152630855020475</v>
+        <v>-0.3033215443292837</v>
       </c>
       <c r="E9">
-        <v>-0.3142333036124796</v>
+        <v>-0.7033215443292837</v>
       </c>
       <c r="F9">
-        <v>-0.7379150650947105</v>
+        <v>-0.7033215443292837</v>
       </c>
       <c r="G9">
-        <v>-0.240409168357784</v>
+        <v>0.9966784556707163</v>
       </c>
       <c r="H9">
-        <v>-0.3119548369921777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.4033215443292836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.04350376313194863</v>
+        <v>0.05000130330345419</v>
       </c>
       <c r="C10">
-        <v>-0.09842870882263309</v>
+        <v>-0.3499986966965458</v>
       </c>
       <c r="D10">
-        <v>-0.09739892693306521</v>
+        <v>-0.7499986966965458</v>
       </c>
       <c r="E10">
-        <v>-0.5210806884152961</v>
+        <v>-0.7499986966965458</v>
       </c>
       <c r="F10">
-        <v>-0.02357479167836964</v>
+        <v>0.9500013033034542</v>
       </c>
       <c r="G10">
-        <v>-0.09512046031276333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.4499986966965458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.09505857110305652</v>
+        <v>-0.4206125572440377</v>
       </c>
       <c r="C11">
-        <v>-0.09402878921348864</v>
+        <v>-0.8206125572440377</v>
       </c>
       <c r="D11">
-        <v>-0.5177105506957196</v>
+        <v>-0.8206125572440377</v>
       </c>
       <c r="E11">
-        <v>-0.02020465395879307</v>
+        <v>0.8793874427559624</v>
       </c>
       <c r="F11">
-        <v>-0.09175032259318676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.5206125572440377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.1158428693468701</v>
+        <v>-0.7551200626749693</v>
       </c>
       <c r="C12">
-        <v>-0.5395246308291011</v>
+        <v>-0.7551200626749693</v>
       </c>
       <c r="D12">
-        <v>-0.04201873409217454</v>
+        <v>0.9448799373250307</v>
       </c>
       <c r="E12">
-        <v>-0.1135644027265682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.4551200626749692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.538539159099616</v>
+        <v>-0.7352230408639261</v>
       </c>
       <c r="C13">
-        <v>-0.04103326236268955</v>
+        <v>0.964776959136074</v>
       </c>
       <c r="D13">
-        <v>-0.1125789309970832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.435223040863926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.01067908119441559</v>
+        <v>1.027145135284297</v>
       </c>
       <c r="C14">
-        <v>-0.0608665874399781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.3728548647157029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.01192579057519597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.5726054543893956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-1.123305982541588</v>
+        <v>0.03877914339252267</v>
       </c>
       <c r="C2">
-        <v>-0.02330598254158778</v>
+        <v>0.1223661001864929</v>
       </c>
       <c r="D2">
-        <v>0.1766940174584122</v>
+        <v>0.5921565300001895</v>
       </c>
       <c r="E2">
-        <v>-0.2233059825415878</v>
+        <v>0.2580542788517324</v>
       </c>
       <c r="F2">
-        <v>0.07669401745841223</v>
+        <v>0.09150221478225759</v>
       </c>
       <c r="G2">
-        <v>-0.3233059825415878</v>
+        <v>0.0475100079502194</v>
       </c>
       <c r="H2">
-        <v>0.4766940174584122</v>
+        <v>0.1099094607512485</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.043791487406589</v>
+        <v>0.1894635701346697</v>
       </c>
       <c r="C3">
-        <v>0.243791487406589</v>
+        <v>0.6592539999483663</v>
       </c>
       <c r="D3">
-        <v>-0.156208512593411</v>
+        <v>0.3251517487999092</v>
       </c>
       <c r="E3">
-        <v>0.143791487406589</v>
+        <v>0.1585996847304344</v>
       </c>
       <c r="F3">
-        <v>-0.256208512593411</v>
+        <v>0.1146074778983962</v>
       </c>
       <c r="G3">
-        <v>0.543791487406589</v>
+        <v>0.1770069306994253</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.125432791727192</v>
+        <v>0.5408953042689693</v>
       </c>
       <c r="C4">
-        <v>-0.2745672082728081</v>
+        <v>0.2067930531205122</v>
       </c>
       <c r="D4">
-        <v>0.02543279172719195</v>
+        <v>0.04024098905103731</v>
       </c>
       <c r="E4">
-        <v>-0.3745672082728081</v>
+        <v>-0.00375121778100088</v>
       </c>
       <c r="F4">
-        <v>0.425432791727192</v>
+        <v>0.05864823502002824</v>
       </c>
       <c r="G4">
-        <v>0.125432791727192</v>
+        <v>0.02541975869265006</v>
       </c>
       <c r="H4">
-        <v>0.02543279172719195</v>
+        <v>0.03155836416756893</v>
       </c>
       <c r="I4">
-        <v>-0.3745672082728081</v>
+        <v>-0.02336658152311553</v>
       </c>
       <c r="J4">
-        <v>-0.7745672082728081</v>
+        <v>-0.02233679963354765</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.3015462512541777</v>
+        <v>0.1798140101391425</v>
       </c>
       <c r="C5">
-        <v>-0.0015462512541777</v>
+        <v>0.01326194606966766</v>
       </c>
       <c r="D5">
-        <v>-0.4015462512541777</v>
+        <v>-0.03073026076237053</v>
       </c>
       <c r="E5">
-        <v>0.3984537487458223</v>
+        <v>0.03166919203865859</v>
       </c>
       <c r="F5">
-        <v>0.0984537487458223</v>
+        <v>-0.001559284288719586</v>
       </c>
       <c r="G5">
-        <v>-0.0015462512541777</v>
+        <v>0.004579321186199281</v>
       </c>
       <c r="H5">
-        <v>-0.4015462512541777</v>
+        <v>-0.05034562450448518</v>
       </c>
       <c r="I5">
-        <v>-0.8015462512541778</v>
+        <v>-0.0493158426149173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.271863973860668</v>
+        <v>0.2866721711845134</v>
       </c>
       <c r="C6">
-        <v>-0.128136026139332</v>
+        <v>0.2426799643524752</v>
       </c>
       <c r="D6">
-        <v>0.671863973860668</v>
+        <v>0.3050794171535043</v>
       </c>
       <c r="E6">
-        <v>0.3718639738606681</v>
+        <v>0.2718509408261262</v>
       </c>
       <c r="F6">
-        <v>0.271863973860668</v>
+        <v>0.277989546301045</v>
       </c>
       <c r="G6">
-        <v>-0.128136026139332</v>
+        <v>0.2230646006103605</v>
       </c>
       <c r="H6">
-        <v>-0.528136026139332</v>
+        <v>0.2240943824999284</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.1414808197323844</v>
+        <v>0.2293351707594228</v>
       </c>
       <c r="C7">
-        <v>0.6585191802676156</v>
+        <v>0.2917346235604519</v>
       </c>
       <c r="D7">
-        <v>0.3585191802676156</v>
+        <v>0.2585061472330737</v>
       </c>
       <c r="E7">
-        <v>0.2585191802676156</v>
+        <v>0.2646447527079926</v>
       </c>
       <c r="F7">
-        <v>-0.1414808197323844</v>
+        <v>0.2097198070173081</v>
       </c>
       <c r="G7">
-        <v>-0.5414808197323844</v>
+        <v>0.210749588906876</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.4029184009508193</v>
+        <v>0.03613384424365556</v>
       </c>
       <c r="C8">
-        <v>0.1029184009508193</v>
+        <v>0.002905367916277386</v>
       </c>
       <c r="D8">
-        <v>0.002918400950819272</v>
+        <v>0.009043973391196253</v>
       </c>
       <c r="E8">
-        <v>-0.3970815990491807</v>
+        <v>-0.04588097229948821</v>
       </c>
       <c r="F8">
-        <v>-0.7970815990491807</v>
+        <v>-0.04485119040992033</v>
       </c>
       <c r="G8">
-        <v>-0.7970815990491807</v>
+        <v>-0.4685329518921513</v>
       </c>
       <c r="H8">
-        <v>0.9029184009508193</v>
+        <v>0.02897294484477524</v>
       </c>
       <c r="I8">
-        <v>-0.4970815990491807</v>
+        <v>-0.04257272378961845</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1966784556707163</v>
+        <v>0.09666542263617448</v>
       </c>
       <c r="C9">
-        <v>0.09667845567071635</v>
+        <v>0.1028040281110933</v>
       </c>
       <c r="D9">
-        <v>-0.3033215443292837</v>
+        <v>0.04787908242040887</v>
       </c>
       <c r="E9">
-        <v>-0.7033215443292837</v>
+        <v>0.04890886430997676</v>
       </c>
       <c r="F9">
-        <v>-0.7033215443292837</v>
+        <v>-0.3747728971722541</v>
       </c>
       <c r="G9">
-        <v>0.9966784556707163</v>
+        <v>0.1227329995646723</v>
       </c>
       <c r="H9">
-        <v>-0.4033215443292836</v>
+        <v>0.05118733093027864</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.05000130330345419</v>
+        <v>0.05612687574383117</v>
       </c>
       <c r="C10">
-        <v>-0.3499986966965458</v>
+        <v>0.001201930053146706</v>
       </c>
       <c r="D10">
-        <v>-0.7499986966965458</v>
+        <v>0.002231711942714591</v>
       </c>
       <c r="E10">
-        <v>-0.7499986966965458</v>
+        <v>-0.4214500495395163</v>
       </c>
       <c r="F10">
-        <v>0.9500013033034542</v>
+        <v>0.07605584719741015</v>
       </c>
       <c r="G10">
-        <v>-0.4499986966965458</v>
+        <v>0.00451017856301647</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.4206125572440377</v>
+        <v>-0.06941193049434516</v>
       </c>
       <c r="C11">
-        <v>-0.8206125572440377</v>
+        <v>-0.06838214860477726</v>
       </c>
       <c r="D11">
-        <v>-0.8206125572440377</v>
+        <v>-0.4920639100870082</v>
       </c>
       <c r="E11">
-        <v>0.8793874427559624</v>
+        <v>0.005441986649918303</v>
       </c>
       <c r="F11">
-        <v>-0.5206125572440377</v>
+        <v>-0.06610368198447539</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.7551200626749693</v>
+        <v>-0.002889654035708851</v>
       </c>
       <c r="C12">
-        <v>-0.7551200626749693</v>
+        <v>-0.4265714155179398</v>
       </c>
       <c r="D12">
-        <v>0.9448799373250307</v>
+        <v>0.07093448121898671</v>
       </c>
       <c r="E12">
-        <v>-0.4551200626749692</v>
+        <v>-0.0006111874154069719</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.7352230408639261</v>
+        <v>-0.4066743937068965</v>
       </c>
       <c r="C13">
-        <v>0.964776959136074</v>
+        <v>0.09083150303002996</v>
       </c>
       <c r="D13">
-        <v>-0.435223040863926</v>
+        <v>0.01928583439563626</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>1.027145135284297</v>
+        <v>0.1531996791782531</v>
       </c>
       <c r="C14">
-        <v>-0.3728548647157029</v>
+        <v>0.08165401054385939</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.5726054543893956</v>
+        <v>-0.1180965791298333</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.43</v>
+      </c>
+      <c r="D2">
+        <v>-0.8700000000000001</v>
+      </c>
+      <c r="E2">
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.53</v>
+      </c>
+      <c r="G2">
+        <v>2.03</v>
+      </c>
+      <c r="H2">
+        <v>-1.47</v>
+      </c>
+      <c r="I2">
+        <v>1.13</v>
+      </c>
+      <c r="J2">
+        <v>-1.87</v>
+      </c>
+      <c r="K2">
+        <v>-0.07000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="C3">
+        <v>-0.52</v>
+      </c>
+      <c r="D3">
+        <v>0.58</v>
+      </c>
+      <c r="E3">
+        <v>2.08</v>
+      </c>
+      <c r="F3">
+        <v>-1.42</v>
+      </c>
+      <c r="G3">
+        <v>1.18</v>
+      </c>
+      <c r="H3">
+        <v>-1.82</v>
+      </c>
+      <c r="I3">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.38</v>
+      </c>
+      <c r="K3">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.51</v>
+      </c>
+      <c r="C4">
+        <v>2.01</v>
+      </c>
+      <c r="D4">
+        <v>-1.49</v>
+      </c>
+      <c r="E4">
+        <v>1.11</v>
+      </c>
+      <c r="F4">
+        <v>-1.89</v>
+      </c>
+      <c r="G4">
+        <v>-0.09</v>
+      </c>
+      <c r="H4">
+        <v>0.31</v>
+      </c>
+      <c r="I4">
+        <v>0.51</v>
+      </c>
+      <c r="J4">
+        <v>0.41</v>
+      </c>
+      <c r="K4">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1.46</v>
+      </c>
+      <c r="C5">
+        <v>1.14</v>
+      </c>
+      <c r="D5">
+        <v>-1.86</v>
+      </c>
+      <c r="E5">
+        <v>-0.06</v>
+      </c>
+      <c r="F5">
+        <v>0.34</v>
+      </c>
+      <c r="G5">
+        <v>0.54</v>
+      </c>
+      <c r="H5">
+        <v>0.44</v>
+      </c>
+      <c r="I5">
+        <v>-0.26</v>
+      </c>
+      <c r="J5">
+        <v>0.44</v>
+      </c>
+      <c r="K5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-1.96</v>
+      </c>
+      <c r="C6">
+        <v>-0.16</v>
+      </c>
+      <c r="D6">
+        <v>0.24</v>
+      </c>
+      <c r="E6">
+        <v>0.44</v>
+      </c>
+      <c r="F6">
+        <v>0.34</v>
+      </c>
+      <c r="G6">
+        <v>-0.36</v>
+      </c>
+      <c r="H6">
+        <v>0.34</v>
+      </c>
+      <c r="I6">
+        <v>-0.06000000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.34</v>
+      </c>
+      <c r="K6">
+        <v>-0.06000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.38</v>
+      </c>
+      <c r="C7">
+        <v>0.58</v>
+      </c>
+      <c r="D7">
+        <v>0.48</v>
+      </c>
+      <c r="E7">
+        <v>-0.22</v>
+      </c>
+      <c r="F7">
+        <v>0.48</v>
+      </c>
+      <c r="G7">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.48</v>
+      </c>
+      <c r="I7">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.38</v>
+      </c>
+      <c r="K7">
+        <v>-0.3200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.36</v>
+      </c>
+      <c r="C8">
+        <v>-0.34</v>
+      </c>
+      <c r="D8">
+        <v>0.36</v>
+      </c>
+      <c r="E8">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.36</v>
+      </c>
+      <c r="G8">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.26</v>
+      </c>
+      <c r="I8">
+        <v>-0.4400000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.06</v>
+      </c>
+      <c r="K8">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="C9">
+        <v>-0.06999999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-0.06999999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.23</v>
+      </c>
+      <c r="G9">
+        <v>-0.47</v>
+      </c>
+      <c r="H9">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.23</v>
+      </c>
+      <c r="J9">
+        <v>-0.27</v>
+      </c>
+      <c r="K9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.37</v>
+      </c>
+      <c r="C10">
+        <v>-0.03000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.27</v>
+      </c>
+      <c r="E10">
+        <v>-0.43</v>
+      </c>
+      <c r="F10">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.27</v>
+      </c>
+      <c r="H10">
+        <v>-0.23</v>
+      </c>
+      <c r="I10">
+        <v>0.17</v>
+      </c>
+      <c r="J10">
+        <v>-0.7300000000000001</v>
+      </c>
+      <c r="K10">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.31</v>
+      </c>
+      <c r="C11">
+        <v>-0.39</v>
+      </c>
+      <c r="D11">
+        <v>0.11</v>
+      </c>
+      <c r="E11">
+        <v>0.31</v>
+      </c>
+      <c r="F11">
+        <v>-0.19</v>
+      </c>
+      <c r="G11">
+        <v>0.21</v>
+      </c>
+      <c r="H11">
+        <v>-0.6900000000000001</v>
+      </c>
+      <c r="I11">
+        <v>-0.09</v>
+      </c>
+      <c r="J11">
+        <v>0.51</v>
+      </c>
+      <c r="K11">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>-0.2</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="G12">
+        <v>-0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>-0.4</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.19</v>
+      </c>
+      <c r="C13">
+        <v>0.21</v>
+      </c>
+      <c r="D13">
+        <v>-0.6900000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-0.09</v>
+      </c>
+      <c r="F13">
+        <v>0.51</v>
+      </c>
+      <c r="G13">
+        <v>-0.39</v>
+      </c>
+      <c r="H13">
+        <v>0.31</v>
+      </c>
+      <c r="I13">
+        <v>0.31</v>
+      </c>
+      <c r="J13">
+        <v>-0.19</v>
+      </c>
+      <c r="K13">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.68</v>
+      </c>
+      <c r="C14">
+        <v>-0.08</v>
+      </c>
+      <c r="D14">
+        <v>0.52</v>
+      </c>
+      <c r="E14">
+        <v>-0.38</v>
+      </c>
+      <c r="F14">
+        <v>0.32</v>
+      </c>
+      <c r="G14">
+        <v>0.32</v>
+      </c>
+      <c r="H14">
+        <v>-0.18</v>
+      </c>
+      <c r="I14">
+        <v>-0.08</v>
+      </c>
+      <c r="J14">
+        <v>-0.08</v>
+      </c>
+      <c r="K14">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>-0.4</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>-0.2</v>
+      </c>
+      <c r="G15">
+        <v>-0.09999999999999999</v>
+      </c>
+      <c r="H15">
+        <v>-0.09999999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="J15">
+        <v>1.110223024625157E-17</v>
+      </c>
+      <c r="K15">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.22</v>
+      </c>
+      <c r="C16">
+        <v>0.22</v>
+      </c>
+      <c r="D16">
+        <v>-0.28</v>
+      </c>
+      <c r="E16">
+        <v>-0.18</v>
+      </c>
+      <c r="F16">
+        <v>-0.18</v>
+      </c>
+      <c r="G16">
+        <v>0.12</v>
+      </c>
+      <c r="H16">
+        <v>-0.08</v>
+      </c>
+      <c r="I16">
+        <v>-0.48</v>
+      </c>
+      <c r="J16">
+        <v>0.32</v>
+      </c>
+      <c r="K16">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.19</v>
+      </c>
+      <c r="C17">
+        <v>-0.09000000000000001</v>
+      </c>
+      <c r="D17">
+        <v>-0.09000000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.21</v>
+      </c>
+      <c r="F17">
+        <v>0.01</v>
+      </c>
+      <c r="G17">
+        <v>-0.39</v>
+      </c>
+      <c r="H17">
+        <v>0.41</v>
+      </c>
+      <c r="I17">
+        <v>-0.19</v>
+      </c>
+      <c r="J17">
+        <v>-0.39</v>
+      </c>
+      <c r="K17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.13</v>
+      </c>
+      <c r="C18">
+        <v>0.17</v>
+      </c>
+      <c r="D18">
+        <v>-0.02999999999999999</v>
+      </c>
+      <c r="E18">
+        <v>-0.43</v>
+      </c>
+      <c r="F18">
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="G18">
+        <v>-0.23</v>
+      </c>
+      <c r="H18">
+        <v>-0.43</v>
+      </c>
+      <c r="I18">
+        <v>-0.02999999999999999</v>
+      </c>
+      <c r="J18">
+        <v>0.07000000000000002</v>
+      </c>
+      <c r="K18">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.04</v>
+      </c>
+      <c r="C19">
+        <v>-0.44</v>
+      </c>
+      <c r="D19">
+        <v>0.36</v>
+      </c>
+      <c r="E19">
+        <v>-0.24</v>
+      </c>
+      <c r="F19">
+        <v>-0.44</v>
+      </c>
+      <c r="G19">
+        <v>-0.04</v>
+      </c>
+      <c r="H19">
+        <v>0.06</v>
+      </c>
+      <c r="I19">
+        <v>-0.44</v>
+      </c>
+      <c r="J19">
+        <v>-0.74</v>
+      </c>
+      <c r="K19">
+        <v>0.5599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="C20">
+        <v>-0.29</v>
+      </c>
+      <c r="D20">
+        <v>-0.49</v>
+      </c>
+      <c r="E20">
+        <v>-0.09</v>
+      </c>
+      <c r="F20">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="G20">
+        <v>-0.49</v>
+      </c>
+      <c r="H20">
+        <v>-0.7899999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.51</v>
+      </c>
+      <c r="J20">
+        <v>0.51</v>
+      </c>
+      <c r="K20">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.4400000000000001</v>
+      </c>
+      <c r="C21">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.06</v>
+      </c>
+      <c r="E21">
+        <v>-0.4400000000000001</v>
+      </c>
+      <c r="F21">
+        <v>-0.74</v>
+      </c>
+      <c r="G21">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="I21">
+        <v>-0.34</v>
+      </c>
+      <c r="J21">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="K21">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.08999999999999998</v>
+      </c>
+      <c r="C22">
+        <v>-0.41</v>
+      </c>
+      <c r="D22">
+        <v>-0.71</v>
+      </c>
+      <c r="E22">
+        <v>0.59</v>
+      </c>
+      <c r="F22">
+        <v>0.59</v>
+      </c>
+      <c r="G22">
+        <v>-0.31</v>
+      </c>
+      <c r="H22">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I22">
+        <v>-0.61</v>
+      </c>
+      <c r="J22">
+        <v>-0.31</v>
+      </c>
+      <c r="K22">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.35</v>
+      </c>
+      <c r="C23">
+        <v>-0.6499999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.65</v>
+      </c>
+      <c r="E23">
+        <v>0.65</v>
+      </c>
+      <c r="F23">
+        <v>-0.25</v>
+      </c>
+      <c r="G23">
+        <v>0.75</v>
+      </c>
+      <c r="H23">
+        <v>-0.5499999999999999</v>
+      </c>
+      <c r="I23">
+        <v>-0.25</v>
+      </c>
+      <c r="J23">
+        <v>-0.25</v>
+      </c>
+      <c r="K23">
+        <v>0.4940571223929872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.7</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>0.6</v>
+      </c>
+      <c r="E24">
+        <v>-0.3</v>
+      </c>
+      <c r="F24">
+        <v>0.7</v>
+      </c>
+      <c r="G24">
+        <v>-0.6</v>
+      </c>
+      <c r="H24">
+        <v>-0.3</v>
+      </c>
+      <c r="I24">
+        <v>-0.3</v>
+      </c>
+      <c r="J24">
+        <v>0.4440571223929872</v>
+      </c>
+      <c r="K24">
+        <v>0.7255945204468831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.63</v>
+      </c>
+      <c r="C25">
+        <v>0.63</v>
+      </c>
+      <c r="D25">
+        <v>-0.27</v>
+      </c>
+      <c r="E25">
+        <v>0.73</v>
+      </c>
+      <c r="F25">
+        <v>-0.57</v>
+      </c>
+      <c r="G25">
+        <v>-0.27</v>
+      </c>
+      <c r="H25">
+        <v>-0.27</v>
+      </c>
+      <c r="I25">
+        <v>0.4740571223929872</v>
+      </c>
+      <c r="J25">
+        <v>0.7555945204468831</v>
+      </c>
+      <c r="K25">
+        <v>0.5592660609007143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.72</v>
+      </c>
+      <c r="C26">
+        <v>-0.18</v>
+      </c>
+      <c r="D26">
+        <v>0.82</v>
+      </c>
+      <c r="E26">
+        <v>-0.48</v>
+      </c>
+      <c r="F26">
+        <v>-0.18</v>
+      </c>
+      <c r="G26">
+        <v>-0.18</v>
+      </c>
+      <c r="H26">
+        <v>0.5640571223929872</v>
+      </c>
+      <c r="I26">
+        <v>0.8455945204468831</v>
+      </c>
+      <c r="J26">
+        <v>0.6492660609007143</v>
+      </c>
+      <c r="K26">
+        <v>0.2750786956675604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.21</v>
+      </c>
+      <c r="C27">
+        <v>0.7899999999999999</v>
+      </c>
+      <c r="D27">
+        <v>-0.51</v>
+      </c>
+      <c r="E27">
+        <v>-0.21</v>
+      </c>
+      <c r="F27">
+        <v>-0.21</v>
+      </c>
+      <c r="G27">
+        <v>0.5340571223929872</v>
+      </c>
+      <c r="H27">
+        <v>0.8155945204468831</v>
+      </c>
+      <c r="I27">
+        <v>0.6192660609007142</v>
+      </c>
+      <c r="J27">
+        <v>0.2450786956675604</v>
+      </c>
+      <c r="K27">
+        <v>2.258330733759602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.71</v>
+      </c>
+      <c r="C28">
+        <v>-0.59</v>
+      </c>
+      <c r="D28">
+        <v>-0.29</v>
+      </c>
+      <c r="E28">
+        <v>-0.29</v>
+      </c>
+      <c r="F28">
+        <v>0.4540571223929872</v>
+      </c>
+      <c r="G28">
+        <v>0.7355945204468831</v>
+      </c>
+      <c r="H28">
+        <v>0.5392660609007143</v>
+      </c>
+      <c r="I28">
+        <v>0.1650786956675604</v>
+      </c>
+      <c r="J28">
+        <v>2.178330733759602</v>
+      </c>
+      <c r="K28">
+        <v>0.0498269496361429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.65</v>
+      </c>
+      <c r="C29">
+        <v>-0.35</v>
+      </c>
+      <c r="D29">
+        <v>-0.35</v>
+      </c>
+      <c r="E29">
+        <v>0.3940571223929872</v>
+      </c>
+      <c r="F29">
+        <v>0.6755945204468831</v>
+      </c>
+      <c r="G29">
+        <v>0.4792660609007143</v>
+      </c>
+      <c r="H29">
+        <v>0.1050786956675604</v>
+      </c>
+      <c r="I29">
+        <v>2.118330733759602</v>
+      </c>
+      <c r="J29">
+        <v>-0.01017305036385713</v>
+      </c>
+      <c r="K29">
+        <v>-0.3169401745841223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-0.37</v>
+      </c>
+      <c r="C30">
+        <v>-0.37</v>
+      </c>
+      <c r="D30">
+        <v>0.3740571223929872</v>
+      </c>
+      <c r="E30">
+        <v>0.6555945204468832</v>
+      </c>
+      <c r="F30">
+        <v>0.4592660609007143</v>
+      </c>
+      <c r="G30">
+        <v>0.08507869566756042</v>
+      </c>
+      <c r="H30">
+        <v>2.098330733759602</v>
+      </c>
+      <c r="I30">
+        <v>-0.03017305036385712</v>
+      </c>
+      <c r="J30">
+        <v>-0.3369401745841223</v>
+      </c>
+      <c r="K30">
+        <v>-0.1079148740658896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-0.36</v>
+      </c>
+      <c r="C31">
+        <v>0.3840571223929872</v>
+      </c>
+      <c r="D31">
+        <v>0.6655945204468831</v>
+      </c>
+      <c r="E31">
+        <v>0.4692660609007143</v>
+      </c>
+      <c r="F31">
+        <v>0.09507869566756039</v>
+      </c>
+      <c r="G31">
+        <v>2.108330733759602</v>
+      </c>
+      <c r="H31">
+        <v>-0.02017305036385715</v>
+      </c>
+      <c r="I31">
+        <v>-0.3269401745841223</v>
+      </c>
+      <c r="J31">
+        <v>-0.09791487406588958</v>
+      </c>
+      <c r="K31">
+        <v>-0.01432791727191931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.3940571223929872</v>
+      </c>
+      <c r="C32">
+        <v>0.6755945204468831</v>
+      </c>
+      <c r="D32">
+        <v>0.4792660609007143</v>
+      </c>
+      <c r="E32">
+        <v>0.1050786956675604</v>
+      </c>
+      <c r="F32">
+        <v>2.118330733759602</v>
+      </c>
+      <c r="G32">
+        <v>-0.01017305036385713</v>
+      </c>
+      <c r="H32">
+        <v>-0.3169401745841223</v>
+      </c>
+      <c r="I32">
+        <v>-0.08791487406588956</v>
+      </c>
+      <c r="J32">
+        <v>-0.004327917271919293</v>
+      </c>
+      <c r="K32">
+        <v>0.4654625125417773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.6511888082075844</v>
+      </c>
+      <c r="C33">
+        <v>0.4548603486614156</v>
+      </c>
+      <c r="D33">
+        <v>0.08067298342826168</v>
+      </c>
+      <c r="E33">
+        <v>2.093925021520303</v>
+      </c>
+      <c r="F33">
+        <v>-0.03457876260315586</v>
+      </c>
+      <c r="G33">
+        <v>-0.341345886823421</v>
+      </c>
+      <c r="H33">
+        <v>-0.1123205863051883</v>
+      </c>
+      <c r="I33">
+        <v>-0.02873362951121802</v>
+      </c>
+      <c r="J33">
+        <v>0.4410568003024786</v>
+      </c>
+      <c r="K33">
+        <v>0.1069545491540215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.1567066088560259</v>
+      </c>
+      <c r="C34">
+        <v>-0.2174807563771279</v>
+      </c>
+      <c r="D34">
+        <v>1.795771281714914</v>
+      </c>
+      <c r="E34">
+        <v>-0.3327325024085455</v>
+      </c>
+      <c r="F34">
+        <v>-0.6394996266288107</v>
+      </c>
+      <c r="G34">
+        <v>-0.4104743261105779</v>
+      </c>
+      <c r="H34">
+        <v>-0.3268873693166076</v>
+      </c>
+      <c r="I34">
+        <v>0.142903060497089</v>
+      </c>
+      <c r="J34">
+        <v>-0.1911991906513681</v>
+      </c>
+      <c r="K34">
+        <v>-0.357751254720843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-0.087847910422511</v>
+      </c>
+      <c r="C35">
+        <v>1.925404127669531</v>
+      </c>
+      <c r="D35">
+        <v>-0.2030996564539286</v>
+      </c>
+      <c r="E35">
+        <v>-0.5098667806741937</v>
+      </c>
+      <c r="F35">
+        <v>-0.280841480155961</v>
+      </c>
+      <c r="G35">
+        <v>-0.1972545233619907</v>
+      </c>
+      <c r="H35">
+        <v>0.2725359064517059</v>
+      </c>
+      <c r="I35">
+        <v>-0.06156634469675121</v>
+      </c>
+      <c r="J35">
+        <v>-0.228118408766226</v>
+      </c>
+      <c r="K35">
+        <v>-0.2721106155982642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>2.032822864192846</v>
+      </c>
+      <c r="C36">
+        <v>-0.09568091993061323</v>
+      </c>
+      <c r="D36">
+        <v>-0.4024480441508784</v>
+      </c>
+      <c r="E36">
+        <v>-0.1734227436326456</v>
+      </c>
+      <c r="F36">
+        <v>-0.08983578683867538</v>
+      </c>
+      <c r="G36">
+        <v>0.3799546429750212</v>
+      </c>
+      <c r="H36">
+        <v>0.04585239182656412</v>
+      </c>
+      <c r="I36">
+        <v>-0.1206996722429107</v>
+      </c>
+      <c r="J36">
+        <v>-0.1646918790749489</v>
+      </c>
+      <c r="K36">
+        <v>-0.1022924262739198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-0.1570061237398173</v>
+      </c>
+      <c r="C37">
+        <v>-0.4637732479600825</v>
+      </c>
+      <c r="D37">
+        <v>-0.2347479474418498</v>
+      </c>
+      <c r="E37">
+        <v>-0.1511609906478795</v>
+      </c>
+      <c r="F37">
+        <v>0.3186294391658171</v>
+      </c>
+      <c r="G37">
+        <v>-0.01547281198264</v>
+      </c>
+      <c r="H37">
+        <v>-0.1820248760521148</v>
+      </c>
+      <c r="I37">
+        <v>-0.226017082884153</v>
+      </c>
+      <c r="J37">
+        <v>-0.1636176300831239</v>
+      </c>
+      <c r="K37">
+        <v>-0.1968461064105021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-0.3209228695477366</v>
+      </c>
+      <c r="C38">
+        <v>-0.09189756902950384</v>
+      </c>
+      <c r="D38">
+        <v>-0.008310612235533574</v>
+      </c>
+      <c r="E38">
+        <v>0.461479817578163</v>
+      </c>
+      <c r="F38">
+        <v>0.1273775664297059</v>
+      </c>
+      <c r="G38">
+        <v>-0.03917449763976892</v>
+      </c>
+      <c r="H38">
+        <v>-0.08316670447180712</v>
+      </c>
+      <c r="I38">
+        <v>-0.020767251670778</v>
+      </c>
+      <c r="J38">
+        <v>-0.05399572799815617</v>
+      </c>
+      <c r="K38">
+        <v>-0.0478571225232373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.03877914339252267</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>0.1223661001864929</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.5921565300001895</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>0.2580542788517324</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>0.09150221478225759</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.0475100079502194</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>0.1099094607512485</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.07668098442387035</v>
+      </c>
+      <c r="J39">
+        <v>0.08281958989878921</v>
+      </c>
+      <c r="K39">
+        <v>0.02789464420810474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.1894635701346697</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>0.6592539999483663</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>0.3251517487999092</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>0.1585996847304344</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.1146074778983962</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>0.1770069306994253</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.1437784543720471</v>
+      </c>
+      <c r="I40">
+        <v>0.149917059846966</v>
+      </c>
+      <c r="J40">
+        <v>0.09499211415628153</v>
+      </c>
+      <c r="K40">
+        <v>0.0960218960458494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.5408953042689693</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>0.2067930531205122</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.04024098905103731</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>-0.00375121778100088</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.05864823502002824</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.02541975869265006</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.03155836416756893</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>-0.02336658152311553</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.02233679963354765</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.4460185611157786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.1798140101391425</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>0.01326194606966766</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>-0.03073026076237053</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.03166919203865859</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-0.001559284288719586</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>0.004579321186199281</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>-0.05034562450448518</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-0.0493158426149173</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-0.4729976040971482</v>
+      </c>
+      <c r="K42">
+        <v>0.02450829263977827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.2866721711845134</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.2426799643524752</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>0.3050794171535043</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.2718509408261262</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>0.277989546301045</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.2230646006103605</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>0.2240943824999284</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>-0.1995873789823025</v>
+      </c>
+      <c r="J43">
+        <v>0.297918517754624</v>
+      </c>
+      <c r="K43">
+        <v>0.2263728491202303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.2293351707594228</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.2917346235604519</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.2585061472330737</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>0.2646447527079926</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.2097198070173081</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>0.210749588906876</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.2129321725753549</v>
+      </c>
+      <c r="I44">
+        <v>0.2845737241615716</v>
+      </c>
+      <c r="J44">
+        <v>0.2130280555271779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.03613384424365556</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.002905367916277386</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.009043973391196253</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>-0.04588097229948821</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.04485119040992033</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>-0.4685329518921513</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.02897294484477524</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.04257272378961845</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.09666542263617448</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.1028040281110933</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.04787908242040887</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>0.04890886430997676</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.3747728971722541</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>0.1227329995646723</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>0.05118733093027864</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.05612687574383117</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.001201930053146706</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>0.002231711942714591</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.4214500495395163</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>0.07605584719741015</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>0.00451017856301647</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>-0.06941193049434516</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.06838214860477726</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.4920639100870082</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>0.005441986649918303</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.06610368198447539</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.002889654035708851</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.4265714155179398</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>0.07093448121898671</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.0006111874154069719</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.4066743937068965</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.09083150303002996</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>0.01928583439563626</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>0.1531996791782531</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>0.08165401054385939</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.1180965791298333</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.02999999999999997</v>
+      </c>
+      <c r="C2">
         <v>-0.6699999999999999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.43</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.8700000000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.5700000000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.53</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.03</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-1.47</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.13</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-1.87</v>
-      </c>
-      <c r="K2">
-        <v>-0.07000000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.48</v>
+      </c>
+      <c r="C3">
         <v>-0.8200000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.52</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.58</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.08</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.42</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.18</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-1.82</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.02000000000000002</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.38</v>
-      </c>
-      <c r="K3">
-        <v>0.58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.59</v>
+      </c>
+      <c r="C4">
         <v>0.51</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.01</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-1.49</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.11</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-1.89</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.09</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.31</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.51</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.41</v>
-      </c>
-      <c r="K4">
-        <v>-0.29</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>2.04</v>
+      </c>
+      <c r="C5">
         <v>-1.46</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.14</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-1.86</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.06</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.34</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.54</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.44</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.26</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.44</v>
-      </c>
-      <c r="K5">
-        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.04</v>
+      </c>
+      <c r="C6">
         <v>-1.96</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.16</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.24</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.44</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.34</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.36</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.34</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.06000000000000001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.34</v>
-      </c>
-      <c r="K6">
-        <v>-0.06000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="C7">
         <v>0.38</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.58</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.48</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.22</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.48</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.07999999999999999</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.48</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.07999999999999999</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.38</v>
-      </c>
-      <c r="K7">
-        <v>-0.3200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.46</v>
+      </c>
+      <c r="C8">
         <v>0.36</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.34</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.36</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.04000000000000001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.36</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.04000000000000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.26</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.4400000000000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.06</v>
-      </c>
-      <c r="K8">
-        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.37</v>
+      </c>
+      <c r="C9">
         <v>0.3300000000000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.06999999999999998</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3300000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.06999999999999998</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.23</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.47</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.03000000000000003</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.23</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.27</v>
-      </c>
-      <c r="K9">
-        <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.03000000000000001</v>
+      </c>
+      <c r="C10">
         <v>0.37</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.03000000000000001</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.27</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.43</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.06999999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.27</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.23</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.17</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.7300000000000001</v>
-      </c>
-      <c r="K10">
-        <v>-0.13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="C11">
         <v>0.31</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.39</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.11</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.31</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.19</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.21</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.6900000000000001</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.09</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.51</v>
-      </c>
-      <c r="K11">
-        <v>-0.39</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,31 +950,31 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.4</v>
+      </c>
+      <c r="C12">
         <v>0.1</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.7000000000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.4</v>
-      </c>
-      <c r="J12">
-        <v>0.3</v>
       </c>
       <c r="K12">
         <v>0.3</v>
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.31</v>
+      </c>
+      <c r="C13">
         <v>-0.19</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.21</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.6900000000000001</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.09</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.51</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.39</v>
-      </c>
-      <c r="H13">
-        <v>0.31</v>
       </c>
       <c r="I13">
         <v>0.31</v>
       </c>
       <c r="J13">
+        <v>0.31</v>
+      </c>
+      <c r="K13">
         <v>-0.19</v>
-      </c>
-      <c r="K13">
-        <v>-0.09</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.22</v>
+      </c>
+      <c r="C14">
         <v>-0.68</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.08</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.52</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.38</v>
-      </c>
-      <c r="F14">
-        <v>0.32</v>
       </c>
       <c r="G14">
         <v>0.32</v>
       </c>
       <c r="H14">
+        <v>0.32</v>
+      </c>
+      <c r="I14">
         <v>-0.18</v>
-      </c>
-      <c r="I14">
-        <v>-0.08</v>
       </c>
       <c r="J14">
         <v>-0.08</v>
       </c>
       <c r="K14">
-        <v>0.22</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.09999999999999999</v>
+      </c>
+      <c r="C15">
         <v>0.5</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.4</v>
-      </c>
-      <c r="D15">
-        <v>0.3</v>
       </c>
       <c r="E15">
         <v>0.3</v>
       </c>
       <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
         <v>-0.2</v>
-      </c>
-      <c r="G15">
-        <v>-0.09999999999999999</v>
       </c>
       <c r="H15">
         <v>-0.09999999999999999</v>
       </c>
       <c r="I15">
+        <v>-0.09999999999999999</v>
+      </c>
+      <c r="J15">
         <v>0.2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.110223024625157E-17</v>
-      </c>
-      <c r="K15">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.22</v>
+        <v>-0.48</v>
       </c>
       <c r="C16">
         <v>0.22</v>
       </c>
       <c r="D16">
+        <v>0.22</v>
+      </c>
+      <c r="E16">
         <v>-0.28</v>
-      </c>
-      <c r="E16">
-        <v>-0.18</v>
       </c>
       <c r="F16">
         <v>-0.18</v>
       </c>
       <c r="G16">
+        <v>-0.18</v>
+      </c>
+      <c r="H16">
         <v>0.12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.08</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.48</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.32</v>
-      </c>
-      <c r="K16">
-        <v>-0.28</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.31</v>
+      </c>
+      <c r="C17">
         <v>-0.19</v>
-      </c>
-      <c r="C17">
-        <v>-0.09000000000000001</v>
       </c>
       <c r="D17">
         <v>-0.09000000000000001</v>
       </c>
       <c r="E17">
+        <v>-0.09000000000000001</v>
+      </c>
+      <c r="F17">
         <v>0.21</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.01</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.39</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.41</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.19</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.39</v>
-      </c>
-      <c r="K17">
-        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1163,31 +1163,31 @@
         <v>-0.13</v>
       </c>
       <c r="C18">
+        <v>-0.13</v>
+      </c>
+      <c r="D18">
         <v>0.17</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.02999999999999999</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.43</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.3700000000000001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.23</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.43</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.02999999999999999</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.07000000000000002</v>
-      </c>
-      <c r="K18">
-        <v>-0.43</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.16</v>
+      </c>
+      <c r="C19">
         <v>-0.04</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.44</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.36</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.24</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.44</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.04</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.06</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.44</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.74</v>
-      </c>
-      <c r="K19">
-        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.49</v>
+      </c>
+      <c r="C20">
         <v>0.3100000000000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.29</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.49</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.09</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.01000000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.49</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-0.7899999999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.51</v>
       </c>
       <c r="J20">
         <v>0.51</v>
       </c>
       <c r="K20">
-        <v>-0.39</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.24</v>
+      </c>
+      <c r="C21">
         <v>-0.4400000000000001</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.04000000000000001</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.06</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.4400000000000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.74</v>
-      </c>
-      <c r="G21">
-        <v>0.5599999999999999</v>
       </c>
       <c r="H21">
         <v>0.5599999999999999</v>
       </c>
       <c r="I21">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="J21">
         <v>-0.34</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.6599999999999999</v>
-      </c>
-      <c r="K21">
-        <v>-0.64</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,31 +1300,31 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.01000000000000002</v>
+      </c>
+      <c r="C22">
         <v>0.08999999999999998</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.41</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.71</v>
-      </c>
-      <c r="E22">
-        <v>0.59</v>
       </c>
       <c r="F22">
         <v>0.59</v>
       </c>
       <c r="G22">
+        <v>0.59</v>
+      </c>
+      <c r="H22">
         <v>-0.31</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.6899999999999999</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.61</v>
-      </c>
-      <c r="J22">
-        <v>-0.31</v>
       </c>
       <c r="K22">
         <v>-0.31</v>
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.15</v>
+      </c>
+      <c r="C23">
         <v>-0.35</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-0.6499999999999999</v>
-      </c>
-      <c r="D23">
-        <v>0.65</v>
       </c>
       <c r="E23">
         <v>0.65</v>
       </c>
       <c r="F23">
+        <v>0.65</v>
+      </c>
+      <c r="G23">
         <v>-0.25</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.75</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.5499999999999999</v>
-      </c>
-      <c r="I23">
-        <v>-0.25</v>
       </c>
       <c r="J23">
         <v>-0.25</v>
       </c>
       <c r="K23">
-        <v>0.4940571223929872</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-0.4</v>
+      </c>
+      <c r="C24">
         <v>-0.7</v>
-      </c>
-      <c r="C24">
-        <v>0.6</v>
       </c>
       <c r="D24">
         <v>0.6</v>
       </c>
       <c r="E24">
+        <v>0.6</v>
+      </c>
+      <c r="F24">
         <v>-0.3</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.7</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.6</v>
-      </c>
-      <c r="H24">
-        <v>-0.3</v>
       </c>
       <c r="I24">
         <v>-0.3</v>
       </c>
       <c r="J24">
+        <v>-0.3</v>
+      </c>
+      <c r="K24">
         <v>0.4440571223929872</v>
-      </c>
-      <c r="K24">
-        <v>0.7255945204468831</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.63</v>
+        <v>-0.6699999999999999</v>
       </c>
       <c r="C25">
         <v>0.63</v>
       </c>
       <c r="D25">
+        <v>0.63</v>
+      </c>
+      <c r="E25">
         <v>-0.27</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.73</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.57</v>
-      </c>
-      <c r="G25">
-        <v>-0.27</v>
       </c>
       <c r="H25">
         <v>-0.27</v>
       </c>
       <c r="I25">
+        <v>-0.27</v>
+      </c>
+      <c r="J25">
         <v>0.4740571223929872</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.7555945204468831</v>
-      </c>
-      <c r="K25">
-        <v>0.5592660609007143</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1443,31 +1443,31 @@
         <v>0.72</v>
       </c>
       <c r="C26">
+        <v>0.72</v>
+      </c>
+      <c r="D26">
         <v>-0.18</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.82</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.48</v>
-      </c>
-      <c r="F26">
-        <v>-0.18</v>
       </c>
       <c r="G26">
         <v>-0.18</v>
       </c>
       <c r="H26">
+        <v>-0.18</v>
+      </c>
+      <c r="I26">
         <v>0.5640571223929872</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.8455945204468831</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.6492660609007143</v>
-      </c>
-      <c r="K26">
-        <v>0.2750786956675604</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C27">
         <v>-0.21</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.7899999999999999</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.51</v>
-      </c>
-      <c r="E27">
-        <v>-0.21</v>
       </c>
       <c r="F27">
         <v>-0.21</v>
       </c>
       <c r="G27">
+        <v>-0.21</v>
+      </c>
+      <c r="H27">
         <v>0.5340571223929872</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.8155945204468831</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.6192660609007142</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.2450786956675604</v>
-      </c>
-      <c r="K27">
-        <v>2.258330733759602</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-0.29</v>
+      </c>
+      <c r="C28">
         <v>0.71</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.59</v>
-      </c>
-      <c r="D28">
-        <v>-0.29</v>
       </c>
       <c r="E28">
         <v>-0.29</v>
       </c>
       <c r="F28">
+        <v>-0.29</v>
+      </c>
+      <c r="G28">
         <v>0.4540571223929872</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.7355945204468831</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.5392660609007143</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.1650786956675604</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2.178330733759602</v>
-      </c>
-      <c r="K28">
-        <v>0.0498269496361429</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="C29">
         <v>-0.65</v>
-      </c>
-      <c r="C29">
-        <v>-0.35</v>
       </c>
       <c r="D29">
         <v>-0.35</v>
       </c>
       <c r="E29">
+        <v>-0.35</v>
+      </c>
+      <c r="F29">
         <v>0.3940571223929872</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.6755945204468831</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.4792660609007143</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.1050786956675604</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.118330733759602</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.01017305036385713</v>
-      </c>
-      <c r="K29">
-        <v>-0.3169401745841223</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.37</v>
+        <v>-0.6699999999999999</v>
       </c>
       <c r="C30">
         <v>-0.37</v>
       </c>
       <c r="D30">
+        <v>-0.37</v>
+      </c>
+      <c r="E30">
         <v>0.3740571223929872</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.6555945204468832</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.4592660609007143</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.08507869566756042</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.098330733759602</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.03017305036385712</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.3369401745841223</v>
-      </c>
-      <c r="K30">
-        <v>-0.1079148740658896</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1618,31 +1618,31 @@
         <v>-0.36</v>
       </c>
       <c r="C31">
+        <v>-0.36</v>
+      </c>
+      <c r="D31">
         <v>0.3840571223929872</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.6655945204468831</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.4692660609007143</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.09507869566756039</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.108330733759602</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.02017305036385715</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.3269401745841223</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.09791487406588958</v>
-      </c>
-      <c r="K31">
-        <v>-0.01432791727191931</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>-0.35</v>
+      </c>
+      <c r="C32">
         <v>0.3940571223929872</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.6755945204468831</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.4792660609007143</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.1050786956675604</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2.118330733759602</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.01017305036385713</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.3169401745841223</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.08791487406588956</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.004327917271919293</v>
-      </c>
-      <c r="K32">
-        <v>0.4654625125417773</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0.3696514101536885</v>
+      </c>
+      <c r="C33">
         <v>0.6511888082075844</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.4548603486614156</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.08067298342826168</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2.093925021520303</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.03457876260315586</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.341345886823421</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.1123205863051883</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.02873362951121802</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.4410568003024786</v>
-      </c>
-      <c r="K33">
-        <v>0.1069545491540215</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0.3530350684021948</v>
+      </c>
+      <c r="C34">
         <v>0.1567066088560259</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-0.2174807563771279</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.795771281714914</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-0.3327325024085455</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-0.6394996266288107</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.4104743261105779</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.3268873693166076</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.142903060497089</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.1911991906513681</v>
-      </c>
-      <c r="K34">
-        <v>-0.357751254720843</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0.2863394548106428</v>
+      </c>
+      <c r="C35">
         <v>-0.087847910422511</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.925404127669531</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.2030996564539286</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-0.5098667806741937</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-0.280841480155961</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.1972545233619907</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.2725359064517059</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.06156634469675121</v>
-      </c>
-      <c r="J35">
-        <v>-0.228118408766226</v>
-      </c>
-      <c r="K35">
-        <v>-0.2721106155982642</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0.01957082610080432</v>
+      </c>
+      <c r="C36">
         <v>2.032822864192846</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-0.09568091993061323</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-0.4024480441508784</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.1734227436326456</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.08983578683867538</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.3799546429750212</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.04585239182656412</v>
-      </c>
-      <c r="I36">
-        <v>-0.1206996722429107</v>
-      </c>
-      <c r="J36">
-        <v>-0.1646918790749489</v>
-      </c>
-      <c r="K36">
-        <v>-0.1022924262739198</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>1.971497660383642</v>
+      </c>
+      <c r="C37">
         <v>-0.1570061237398173</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-0.4637732479600825</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.2347479474418498</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.1511609906478795</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.3186294391658171</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-0.01547281198264</v>
-      </c>
-      <c r="H37">
-        <v>-0.1820248760521148</v>
-      </c>
-      <c r="I37">
-        <v>-0.226017082884153</v>
-      </c>
-      <c r="J37">
-        <v>-0.1636176300831239</v>
-      </c>
-      <c r="K37">
-        <v>-0.1968461064105021</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>-0.01415574532747142</v>
+      </c>
+      <c r="C38">
         <v>-0.3209228695477366</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.09189756902950384</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.008310612235533574</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.461479817578163</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.1273775664297059</v>
-      </c>
-      <c r="G38">
-        <v>-0.03917449763976892</v>
-      </c>
-      <c r="H38">
-        <v>-0.08316670447180712</v>
-      </c>
-      <c r="I38">
-        <v>-0.020767251670778</v>
-      </c>
-      <c r="J38">
-        <v>-0.05399572799815617</v>
-      </c>
-      <c r="K38">
-        <v>-0.0478571225232373</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>-0.1902461571257101</v>
+      </c>
+      <c r="C39">
         <v>0.03877914339252267</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.1223661001864929</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.5921565300001895</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.2580542788517324</v>
-      </c>
-      <c r="F39">
-        <v>0.09150221478225759</v>
-      </c>
-      <c r="G39">
-        <v>0.0475100079502194</v>
-      </c>
-      <c r="H39">
-        <v>0.1099094607512485</v>
-      </c>
-      <c r="I39">
-        <v>0.07668098442387035</v>
-      </c>
-      <c r="J39">
-        <v>0.08281958989878921</v>
-      </c>
-      <c r="K39">
-        <v>0.02789464420810474</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0.1058766133406994</v>
+      </c>
+      <c r="C40">
         <v>0.1894635701346697</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.6592539999483663</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.3251517487999092</v>
-      </c>
-      <c r="E40">
-        <v>0.1585996847304344</v>
-      </c>
-      <c r="F40">
-        <v>0.1146074778983962</v>
-      </c>
-      <c r="G40">
-        <v>0.1770069306994253</v>
-      </c>
-      <c r="H40">
-        <v>0.1437784543720471</v>
-      </c>
-      <c r="I40">
-        <v>0.149917059846966</v>
-      </c>
-      <c r="J40">
-        <v>0.09499211415628153</v>
-      </c>
-      <c r="K40">
-        <v>0.0960218960458494</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.07110487445527267</v>
+      </c>
+      <c r="C41">
         <v>0.5408953042689693</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.2067930531205122</v>
-      </c>
-      <c r="D41">
-        <v>0.04024098905103731</v>
-      </c>
-      <c r="E41">
-        <v>-0.00375121778100088</v>
-      </c>
-      <c r="F41">
-        <v>0.05864823502002824</v>
-      </c>
-      <c r="G41">
-        <v>0.02541975869265006</v>
-      </c>
-      <c r="H41">
-        <v>0.03155836416756893</v>
-      </c>
-      <c r="I41">
-        <v>-0.02336658152311553</v>
-      </c>
-      <c r="J41">
-        <v>-0.02233679963354765</v>
-      </c>
-      <c r="K41">
-        <v>-0.4460185611157786</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0.5139162612875996</v>
+      </c>
+      <c r="C42">
         <v>0.1798140101391425</v>
-      </c>
-      <c r="C42">
-        <v>0.01326194606966766</v>
-      </c>
-      <c r="D42">
-        <v>-0.03073026076237053</v>
-      </c>
-      <c r="E42">
-        <v>0.03166919203865859</v>
-      </c>
-      <c r="F42">
-        <v>-0.001559284288719586</v>
-      </c>
-      <c r="G42">
-        <v>0.004579321186199281</v>
-      </c>
-      <c r="H42">
-        <v>-0.05034562450448518</v>
-      </c>
-      <c r="I42">
-        <v>-0.0493158426149173</v>
-      </c>
-      <c r="J42">
-        <v>-0.4729976040971482</v>
-      </c>
-      <c r="K42">
-        <v>0.02450829263977827</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.2866721711845134</v>
-      </c>
-      <c r="C43">
-        <v>0.2426799643524752</v>
-      </c>
-      <c r="D43">
-        <v>0.3050794171535043</v>
-      </c>
-      <c r="E43">
-        <v>0.2718509408261262</v>
-      </c>
-      <c r="F43">
-        <v>0.277989546301045</v>
-      </c>
-      <c r="G43">
-        <v>0.2230646006103605</v>
-      </c>
-      <c r="H43">
-        <v>0.2240943824999284</v>
-      </c>
-      <c r="I43">
-        <v>-0.1995873789823025</v>
-      </c>
-      <c r="J43">
-        <v>0.297918517754624</v>
-      </c>
-      <c r="K43">
-        <v>0.2263728491202303</v>
+        <v>0.4532242352539883</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.2293351707594228</v>
-      </c>
-      <c r="C44">
-        <v>0.2917346235604519</v>
-      </c>
-      <c r="D44">
-        <v>0.2585061472330737</v>
-      </c>
-      <c r="E44">
-        <v>0.2646447527079926</v>
-      </c>
-      <c r="F44">
-        <v>0.2097198070173081</v>
-      </c>
-      <c r="G44">
-        <v>0.210749588906876</v>
-      </c>
-      <c r="H44">
-        <v>-0.2129321725753549</v>
-      </c>
-      <c r="I44">
-        <v>0.2845737241615716</v>
-      </c>
-      <c r="J44">
-        <v>0.2130280555271779</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.03613384424365556</v>
-      </c>
-      <c r="C45">
-        <v>0.002905367916277386</v>
-      </c>
-      <c r="D45">
-        <v>0.009043973391196253</v>
-      </c>
-      <c r="E45">
-        <v>-0.04588097229948821</v>
-      </c>
-      <c r="F45">
-        <v>-0.04485119040992033</v>
-      </c>
-      <c r="G45">
-        <v>-0.4685329518921513</v>
-      </c>
-      <c r="H45">
-        <v>0.02897294484477524</v>
-      </c>
-      <c r="I45">
-        <v>-0.04257272378961845</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.09666542263617448</v>
-      </c>
-      <c r="C46">
-        <v>0.1028040281110933</v>
-      </c>
-      <c r="D46">
-        <v>0.04787908242040887</v>
-      </c>
-      <c r="E46">
-        <v>0.04890886430997676</v>
-      </c>
-      <c r="F46">
-        <v>-0.3747728971722541</v>
-      </c>
-      <c r="G46">
-        <v>0.1227329995646723</v>
-      </c>
-      <c r="H46">
-        <v>0.05118733093027864</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.05612687574383117</v>
-      </c>
-      <c r="C47">
-        <v>0.001201930053146706</v>
-      </c>
-      <c r="D47">
-        <v>0.002231711942714591</v>
-      </c>
-      <c r="E47">
-        <v>-0.4214500495395163</v>
-      </c>
-      <c r="F47">
-        <v>0.07605584719741015</v>
-      </c>
-      <c r="G47">
-        <v>0.00451017856301647</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>-0.06941193049434516</v>
-      </c>
-      <c r="C48">
-        <v>-0.06838214860477726</v>
-      </c>
-      <c r="D48">
-        <v>-0.4920639100870082</v>
-      </c>
-      <c r="E48">
-        <v>0.005441986649918303</v>
-      </c>
-      <c r="F48">
-        <v>-0.06610368198447539</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.002889654035708851</v>
-      </c>
-      <c r="C49">
-        <v>-0.4265714155179398</v>
-      </c>
-      <c r="D49">
-        <v>0.07093448121898671</v>
-      </c>
-      <c r="E49">
-        <v>-0.0006111874154069719</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.4066743937068965</v>
-      </c>
-      <c r="C50">
-        <v>0.09083150303002996</v>
-      </c>
-      <c r="D50">
-        <v>0.01928583439563626</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>0.1531996791782531</v>
-      </c>
-      <c r="C51">
-        <v>0.08165401054385939</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.1180965791298333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>-0.3</v>
       </c>
       <c r="K24">
-        <v>0.4440571223929872</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>-0.27</v>
       </c>
       <c r="J25">
-        <v>0.4740571223929872</v>
+        <v>2.03</v>
       </c>
       <c r="K25">
-        <v>0.7555945204468831</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>-0.18</v>
       </c>
       <c r="I26">
-        <v>0.5640571223929872</v>
+        <v>2.12</v>
       </c>
       <c r="J26">
-        <v>0.8455945204468831</v>
+        <v>-1.28</v>
       </c>
       <c r="K26">
-        <v>0.6492660609007143</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>-0.21</v>
       </c>
       <c r="H27">
-        <v>0.5340571223929872</v>
+        <v>2.09</v>
       </c>
       <c r="I27">
-        <v>0.8155945204468831</v>
+        <v>-1.31</v>
       </c>
       <c r="J27">
-        <v>0.6192660609007142</v>
+        <v>-1.31</v>
       </c>
       <c r="K27">
-        <v>0.2450786956675604</v>
+        <v>-0.01000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>-0.29</v>
       </c>
       <c r="G28">
-        <v>0.4540571223929872</v>
+        <v>2.01</v>
       </c>
       <c r="H28">
-        <v>0.7355945204468831</v>
+        <v>-1.39</v>
       </c>
       <c r="I28">
-        <v>0.5392660609007143</v>
+        <v>-1.39</v>
       </c>
       <c r="J28">
-        <v>0.1650786956675604</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="K28">
-        <v>2.178330733759602</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>-0.35</v>
       </c>
       <c r="F29">
-        <v>0.3940571223929872</v>
+        <v>1.95</v>
       </c>
       <c r="G29">
-        <v>0.6755945204468831</v>
+        <v>-1.45</v>
       </c>
       <c r="H29">
-        <v>0.4792660609007143</v>
+        <v>-1.45</v>
       </c>
       <c r="I29">
-        <v>0.1050786956675604</v>
+        <v>-0.15</v>
       </c>
       <c r="J29">
-        <v>2.118330733759602</v>
+        <v>0.05</v>
       </c>
       <c r="K29">
-        <v>-0.01017305036385713</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>-0.37</v>
       </c>
       <c r="E30">
-        <v>0.3740571223929872</v>
+        <v>1.93</v>
       </c>
       <c r="F30">
-        <v>0.6555945204468832</v>
+        <v>-1.47</v>
       </c>
       <c r="G30">
-        <v>0.4592660609007143</v>
+        <v>-1.47</v>
       </c>
       <c r="H30">
-        <v>0.08507869566756042</v>
+        <v>-0.17</v>
       </c>
       <c r="I30">
-        <v>2.098330733759602</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="J30">
-        <v>-0.03017305036385712</v>
+        <v>-0.17</v>
       </c>
       <c r="K30">
-        <v>-0.3369401745841223</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>-0.36</v>
       </c>
       <c r="D31">
-        <v>0.3840571223929872</v>
+        <v>1.94</v>
       </c>
       <c r="E31">
-        <v>0.6655945204468831</v>
+        <v>-1.46</v>
       </c>
       <c r="F31">
-        <v>0.4692660609007143</v>
+        <v>-1.46</v>
       </c>
       <c r="G31">
-        <v>0.09507869566756039</v>
+        <v>-0.16</v>
       </c>
       <c r="H31">
-        <v>2.108330733759602</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="I31">
-        <v>-0.02017305036385715</v>
+        <v>-0.16</v>
       </c>
       <c r="J31">
-        <v>-0.3269401745841223</v>
+        <v>-1.26</v>
       </c>
       <c r="K31">
-        <v>-0.09791487406588958</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>-0.35</v>
       </c>
       <c r="C32">
-        <v>0.3940571223929872</v>
+        <v>1.95</v>
       </c>
       <c r="D32">
-        <v>0.6755945204468831</v>
+        <v>-1.45</v>
       </c>
       <c r="E32">
-        <v>0.4792660609007143</v>
+        <v>-1.45</v>
       </c>
       <c r="F32">
-        <v>0.1050786956675604</v>
+        <v>-0.15</v>
       </c>
       <c r="G32">
-        <v>2.118330733759602</v>
+        <v>0.05</v>
       </c>
       <c r="H32">
-        <v>-0.01017305036385713</v>
+        <v>-0.15</v>
       </c>
       <c r="I32">
-        <v>-0.3169401745841223</v>
+        <v>-1.25</v>
       </c>
       <c r="J32">
-        <v>-0.08791487406588956</v>
+        <v>-0.15</v>
       </c>
       <c r="K32">
-        <v>-0.004327917271919293</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.3696514101536885</v>
+        <v>1.96</v>
       </c>
       <c r="C33">
-        <v>0.6511888082075844</v>
+        <v>-1.44</v>
       </c>
       <c r="D33">
-        <v>0.4548603486614156</v>
+        <v>-1.44</v>
       </c>
       <c r="E33">
-        <v>0.08067298342826168</v>
+        <v>-0.14</v>
       </c>
       <c r="F33">
-        <v>2.093925021520303</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="G33">
-        <v>-0.03457876260315586</v>
+        <v>-0.14</v>
       </c>
       <c r="H33">
-        <v>-0.341345886823421</v>
+        <v>-1.24</v>
       </c>
       <c r="I33">
-        <v>-0.1123205863051883</v>
+        <v>-0.14</v>
       </c>
       <c r="J33">
-        <v>-0.02873362951121802</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="K33">
-        <v>0.4410568003024786</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.3530350684021948</v>
+        <v>-1.67</v>
       </c>
       <c r="C34">
-        <v>0.1567066088560259</v>
+        <v>-1.67</v>
       </c>
       <c r="D34">
-        <v>-0.2174807563771279</v>
+        <v>-0.37</v>
       </c>
       <c r="E34">
-        <v>1.795771281714914</v>
+        <v>-0.17</v>
       </c>
       <c r="F34">
-        <v>-0.3327325024085455</v>
+        <v>-0.37</v>
       </c>
       <c r="G34">
-        <v>-0.6394996266288107</v>
+        <v>-1.47</v>
       </c>
       <c r="H34">
-        <v>-0.4104743261105779</v>
+        <v>-0.37</v>
       </c>
       <c r="I34">
-        <v>-0.3268873693166076</v>
+        <v>-0.17</v>
       </c>
       <c r="J34">
-        <v>0.142903060497089</v>
+        <v>-0.5700000000000001</v>
       </c>
       <c r="K34">
-        <v>-0.1911991906513681</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.2863394548106428</v>
+        <v>-1.55</v>
       </c>
       <c r="C35">
-        <v>-0.087847910422511</v>
+        <v>-0.25</v>
       </c>
       <c r="D35">
-        <v>1.925404127669531</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="E35">
-        <v>-0.2030996564539286</v>
+        <v>-0.25</v>
       </c>
       <c r="F35">
-        <v>-0.5098667806741937</v>
+        <v>-1.35</v>
       </c>
       <c r="G35">
-        <v>-0.280841480155961</v>
+        <v>-0.25</v>
       </c>
       <c r="H35">
-        <v>-0.1972545233619907</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="I35">
-        <v>0.2725359064517059</v>
+        <v>-0.45</v>
       </c>
       <c r="J35">
-        <v>-0.06156634469675121</v>
+        <v>-0.15</v>
+      </c>
+      <c r="K35">
+        <v>-0.55</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.01957082610080432</v>
+        <v>-0.23</v>
       </c>
       <c r="C36">
-        <v>2.032822864192846</v>
+        <v>-0.03</v>
       </c>
       <c r="D36">
-        <v>-0.09568091993061323</v>
+        <v>-0.23</v>
       </c>
       <c r="E36">
-        <v>-0.4024480441508784</v>
+        <v>-1.33</v>
       </c>
       <c r="F36">
-        <v>-0.1734227436326456</v>
+        <v>-0.23</v>
       </c>
       <c r="G36">
-        <v>-0.08983578683867538</v>
+        <v>-0.03</v>
       </c>
       <c r="H36">
-        <v>0.3799546429750212</v>
+        <v>-0.43</v>
       </c>
       <c r="I36">
-        <v>0.04585239182656412</v>
+        <v>-0.13</v>
+      </c>
+      <c r="J36">
+        <v>-0.53</v>
+      </c>
+      <c r="K36">
+        <v>0.27</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1.971497660383642</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="C37">
-        <v>-0.1570061237398173</v>
+        <v>-0.16</v>
       </c>
       <c r="D37">
-        <v>-0.4637732479600825</v>
+        <v>-1.26</v>
       </c>
       <c r="E37">
-        <v>-0.2347479474418498</v>
+        <v>-0.16</v>
       </c>
       <c r="F37">
-        <v>-0.1511609906478795</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="G37">
-        <v>0.3186294391658171</v>
+        <v>-0.36</v>
       </c>
       <c r="H37">
-        <v>-0.01547281198264</v>
+        <v>-0.06000000000000002</v>
+      </c>
+      <c r="I37">
+        <v>-0.46</v>
+      </c>
+      <c r="J37">
+        <v>0.34</v>
+      </c>
+      <c r="K37">
+        <v>0.03999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.01415574532747142</v>
+        <v>-0.13</v>
       </c>
       <c r="C38">
-        <v>-0.3209228695477366</v>
+        <v>-1.23</v>
       </c>
       <c r="D38">
-        <v>-0.09189756902950384</v>
+        <v>-0.13</v>
       </c>
       <c r="E38">
-        <v>-0.008310612235533574</v>
+        <v>0.07000000000000002</v>
       </c>
       <c r="F38">
-        <v>0.461479817578163</v>
+        <v>-0.33</v>
       </c>
       <c r="G38">
-        <v>0.1273775664297059</v>
+        <v>-0.02999999999999998</v>
+      </c>
+      <c r="H38">
+        <v>-0.43</v>
+      </c>
+      <c r="I38">
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="J38">
+        <v>0.07000000000000002</v>
+      </c>
+      <c r="K38">
+        <v>-0.02999999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1902461571257101</v>
+        <v>-1.24</v>
       </c>
       <c r="C39">
-        <v>0.03877914339252267</v>
+        <v>-0.14</v>
       </c>
       <c r="D39">
-        <v>0.1223661001864929</v>
+        <v>0.06</v>
       </c>
       <c r="E39">
-        <v>0.5921565300001895</v>
+        <v>-0.34</v>
       </c>
       <c r="F39">
-        <v>0.2580542788517324</v>
+        <v>-0.04</v>
+      </c>
+      <c r="G39">
+        <v>-0.44</v>
+      </c>
+      <c r="H39">
+        <v>0.36</v>
+      </c>
+      <c r="I39">
+        <v>0.06</v>
+      </c>
+      <c r="J39">
+        <v>-0.04</v>
+      </c>
+      <c r="K39">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.1058766133406994</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C40">
-        <v>0.1894635701346697</v>
+        <v>0.27</v>
       </c>
       <c r="D40">
-        <v>0.6592539999483663</v>
+        <v>-0.13</v>
       </c>
       <c r="E40">
-        <v>0.3251517487999092</v>
+        <v>0.17</v>
+      </c>
+      <c r="F40">
+        <v>-0.23</v>
+      </c>
+      <c r="G40">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.27</v>
+      </c>
+      <c r="I40">
+        <v>0.17</v>
+      </c>
+      <c r="J40">
+        <v>-0.23</v>
+      </c>
+      <c r="K40">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.07110487445527267</v>
+        <v>0.14</v>
       </c>
       <c r="C41">
-        <v>0.5408953042689693</v>
+        <v>-0.26</v>
       </c>
       <c r="D41">
-        <v>0.2067930531205122</v>
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="E41">
+        <v>-0.36</v>
+      </c>
+      <c r="F41">
+        <v>0.4400000000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.14</v>
+      </c>
+      <c r="H41">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="I41">
+        <v>-0.36</v>
+      </c>
+      <c r="J41">
+        <v>-0.76</v>
+      </c>
+      <c r="K41">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.5139162612875996</v>
+        <v>-0.26</v>
       </c>
       <c r="C42">
-        <v>0.1798140101391425</v>
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="D42">
+        <v>-0.36</v>
+      </c>
+      <c r="E42">
+        <v>0.4400000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.14</v>
+      </c>
+      <c r="G42">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="H42">
+        <v>-0.36</v>
+      </c>
+      <c r="I42">
+        <v>-0.76</v>
+      </c>
+      <c r="J42">
+        <v>-0.76</v>
+      </c>
+      <c r="K42">
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.4532242352539883</v>
+        <v>0.1</v>
+      </c>
+      <c r="C43">
+        <v>-0.3</v>
+      </c>
+      <c r="D43">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+      <c r="G43">
+        <v>-0.3</v>
+      </c>
+      <c r="H43">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="I43">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.09000000000000002</v>
+      </c>
+      <c r="C44">
+        <v>0.71</v>
+      </c>
+      <c r="D44">
+        <v>0.41</v>
+      </c>
+      <c r="E44">
+        <v>0.31</v>
+      </c>
+      <c r="F44">
+        <v>-0.09000000000000002</v>
+      </c>
+      <c r="G44">
+        <v>-0.49</v>
+      </c>
+      <c r="H44">
+        <v>-0.49</v>
+      </c>
+      <c r="I44">
+        <v>1.21</v>
+      </c>
+      <c r="J44">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.2200000000000001</v>
+      </c>
+      <c r="E45">
+        <v>-0.1799999999999999</v>
+      </c>
+      <c r="F45">
+        <v>-0.58</v>
+      </c>
+      <c r="G45">
+        <v>-0.58</v>
+      </c>
+      <c r="H45">
+        <v>1.12</v>
+      </c>
+      <c r="I45">
+        <v>-0.2799999999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.11</v>
+      </c>
+      <c r="C46">
+        <v>0.009999999999999986</v>
+      </c>
+      <c r="D46">
+        <v>-0.39</v>
+      </c>
+      <c r="E46">
+        <v>-0.79</v>
+      </c>
+      <c r="F46">
+        <v>-0.79</v>
+      </c>
+      <c r="G46">
+        <v>0.91</v>
+      </c>
+      <c r="H46">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.06000000000000001</v>
+      </c>
+      <c r="C47">
+        <v>-0.34</v>
+      </c>
+      <c r="D47">
+        <v>-0.74</v>
+      </c>
+      <c r="E47">
+        <v>-0.74</v>
+      </c>
+      <c r="F47">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="G47">
+        <v>-0.44</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>-0.4</v>
+      </c>
+      <c r="C48">
+        <v>-0.8</v>
+      </c>
+      <c r="D48">
+        <v>-0.8</v>
+      </c>
+      <c r="E48">
+        <v>0.9</v>
+      </c>
+      <c r="F48">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.79</v>
+      </c>
+      <c r="C49">
+        <v>-0.79</v>
+      </c>
+      <c r="D49">
+        <v>0.91</v>
+      </c>
+      <c r="E49">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>-0.67</v>
+      </c>
+      <c r="C50">
+        <v>1.03</v>
+      </c>
+      <c r="D50">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>-0.5700000000000001</v>
       </c>
-      <c r="G2">
-        <v>0.53</v>
-      </c>
-      <c r="H2">
-        <v>2.03</v>
-      </c>
-      <c r="I2">
-        <v>-1.47</v>
-      </c>
-      <c r="J2">
-        <v>1.13</v>
-      </c>
-      <c r="K2">
-        <v>-1.87</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>1.18</v>
       </c>
-      <c r="I3">
-        <v>-1.82</v>
-      </c>
-      <c r="J3">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="K3">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>1.11</v>
       </c>
-      <c r="G4">
-        <v>-1.89</v>
-      </c>
-      <c r="H4">
-        <v>-0.09</v>
-      </c>
-      <c r="I4">
-        <v>0.31</v>
-      </c>
-      <c r="J4">
-        <v>0.51</v>
-      </c>
-      <c r="K4">
-        <v>0.41</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>0.54</v>
       </c>
-      <c r="I5">
-        <v>0.44</v>
-      </c>
-      <c r="J5">
-        <v>-0.26</v>
-      </c>
-      <c r="K5">
-        <v>0.44</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>0.44</v>
       </c>
-      <c r="G6">
-        <v>0.34</v>
-      </c>
-      <c r="H6">
-        <v>-0.36</v>
-      </c>
-      <c r="I6">
-        <v>0.34</v>
-      </c>
-      <c r="J6">
-        <v>-0.06000000000000001</v>
-      </c>
-      <c r="K6">
-        <v>0.34</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>0.07999999999999999</v>
       </c>
-      <c r="I7">
-        <v>0.48</v>
-      </c>
-      <c r="J7">
-        <v>0.07999999999999999</v>
-      </c>
-      <c r="K7">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>-0.04000000000000001</v>
       </c>
-      <c r="G8">
-        <v>0.36</v>
-      </c>
-      <c r="H8">
-        <v>-0.04000000000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.26</v>
-      </c>
-      <c r="J8">
-        <v>-0.4400000000000001</v>
-      </c>
-      <c r="K8">
-        <v>0.06</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>-0.47</v>
       </c>
-      <c r="I9">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="J9">
-        <v>0.23</v>
-      </c>
-      <c r="K9">
-        <v>-0.27</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>-0.43</v>
       </c>
-      <c r="G10">
-        <v>0.06999999999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.27</v>
-      </c>
-      <c r="I10">
-        <v>-0.23</v>
-      </c>
-      <c r="J10">
-        <v>0.17</v>
-      </c>
-      <c r="K10">
-        <v>-0.7300000000000001</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.21</v>
       </c>
-      <c r="I11">
-        <v>-0.6900000000000001</v>
-      </c>
-      <c r="J11">
-        <v>-0.09</v>
-      </c>
-      <c r="K11">
-        <v>0.51</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.2</v>
       </c>
-      <c r="G12">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="H12">
-        <v>-0.1</v>
-      </c>
-      <c r="I12">
-        <v>0.5</v>
-      </c>
-      <c r="J12">
-        <v>-0.4</v>
-      </c>
-      <c r="K12">
-        <v>0.3</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-0.39</v>
       </c>
-      <c r="I13">
-        <v>0.31</v>
-      </c>
-      <c r="J13">
-        <v>0.31</v>
-      </c>
-      <c r="K13">
-        <v>-0.19</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.38</v>
       </c>
-      <c r="G14">
-        <v>0.32</v>
-      </c>
-      <c r="H14">
-        <v>0.32</v>
-      </c>
-      <c r="I14">
-        <v>-0.18</v>
-      </c>
-      <c r="J14">
-        <v>-0.08</v>
-      </c>
-      <c r="K14">
-        <v>-0.08</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-0.09999999999999999</v>
       </c>
-      <c r="I15">
-        <v>-0.09999999999999999</v>
-      </c>
-      <c r="J15">
-        <v>0.2</v>
-      </c>
-      <c r="K15">
-        <v>1.110223024625157E-17</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.18</v>
       </c>
-      <c r="G16">
-        <v>-0.18</v>
-      </c>
-      <c r="H16">
-        <v>0.12</v>
-      </c>
-      <c r="I16">
-        <v>-0.08</v>
-      </c>
-      <c r="J16">
-        <v>-0.48</v>
-      </c>
-      <c r="K16">
-        <v>0.32</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-0.39</v>
       </c>
-      <c r="I17">
-        <v>0.41</v>
-      </c>
-      <c r="J17">
-        <v>-0.19</v>
-      </c>
-      <c r="K17">
-        <v>-0.39</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-0.02999999999999999</v>
       </c>
-      <c r="K18">
-        <v>0.07000000000000002</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-0.04</v>
       </c>
-      <c r="I19">
-        <v>0.06</v>
-      </c>
-      <c r="J19">
-        <v>-0.44</v>
-      </c>
-      <c r="K19">
-        <v>-0.74</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.51</v>
       </c>
-      <c r="K20">
-        <v>0.51</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.5599999999999999</v>
       </c>
-      <c r="I21">
-        <v>0.5599999999999999</v>
-      </c>
-      <c r="J21">
-        <v>-0.34</v>
-      </c>
-      <c r="K21">
-        <v>0.6599999999999999</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.61</v>
       </c>
-      <c r="K22">
-        <v>-0.31</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>-0.5499999999999999</v>
       </c>
-      <c r="J23">
-        <v>-0.25</v>
-      </c>
-      <c r="K23">
-        <v>-0.25</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>-0.6</v>
       </c>
-      <c r="I24">
-        <v>-0.3</v>
-      </c>
-      <c r="J24">
-        <v>-0.3</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-1.28</v>
       </c>
-      <c r="K26">
-        <v>-1.28</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-1.31</v>
       </c>
-      <c r="J27">
-        <v>-1.31</v>
-      </c>
-      <c r="K27">
-        <v>-0.01000000000000001</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-1.39</v>
       </c>
-      <c r="I28">
-        <v>-1.39</v>
-      </c>
-      <c r="J28">
-        <v>-0.08999999999999997</v>
-      </c>
-      <c r="K28">
-        <v>0.11</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-0.17</v>
       </c>
-      <c r="K30">
-        <v>-1.27</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-0.16</v>
       </c>
-      <c r="J31">
-        <v>-1.26</v>
-      </c>
-      <c r="K31">
-        <v>-0.16</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-0.15</v>
       </c>
-      <c r="I32">
-        <v>-1.25</v>
-      </c>
-      <c r="J32">
-        <v>-0.15</v>
-      </c>
-      <c r="K32">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>-0.5700000000000001</v>
       </c>
-      <c r="K34">
-        <v>-0.27</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>-0.45</v>
       </c>
-      <c r="J35">
-        <v>-0.15</v>
-      </c>
-      <c r="K35">
-        <v>-0.55</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-0.43</v>
       </c>
-      <c r="I36">
-        <v>-0.13</v>
-      </c>
-      <c r="J36">
-        <v>-0.53</v>
-      </c>
-      <c r="K36">
-        <v>0.27</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>0.07000000000000002</v>
       </c>
-      <c r="K38">
-        <v>-0.02999999999999998</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>0.06</v>
       </c>
-      <c r="J39">
-        <v>-0.04</v>
-      </c>
-      <c r="K39">
-        <v>-0.44</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>0.27</v>
       </c>
-      <c r="I40">
-        <v>0.17</v>
-      </c>
-      <c r="J40">
-        <v>-0.23</v>
-      </c>
-      <c r="K40">
-        <v>-0.63</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>-0.76</v>
       </c>
-      <c r="K42">
-        <v>0.9400000000000001</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-0.7000000000000001</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>-0.4</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-0.49</v>
-      </c>
-      <c r="I44">
-        <v>1.21</v>
-      </c>
-      <c r="J44">
-        <v>-0.19</v>
       </c>
     </row>
     <row r="45" spans="1:11">
